--- a/uploads/ExcelPruebaOrangeG55.xlsx
+++ b/uploads/ExcelPruebaOrangeG55.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fugem/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramasTFG\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91A9C9A-F4E9-D743-9BD2-26C1A8B52596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C7EC0-5E0C-4E47-BF78-81B82445ABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2380" windowWidth="27640" windowHeight="16740" xr2:uid="{D6015473-BA1F-4047-BAD7-7918617657AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6015473-BA1F-4047-BAD7-7918617657AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
-  <si>
-    <t>UK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>discovery date</t>
   </si>
@@ -2336,7 +2333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -2354,18 +2351,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2512,7 +2497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2828,35 +2813,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDAB574-9F8C-7E41-9BC7-62B769BED3D6}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.69921875" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2871,13 +2856,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -2888,693 +2873,596 @@
       <c r="L3" s="2"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="5"/>
+    <row r="6" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>45511</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="14">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="5"/>
+    <row r="7" spans="1:13" ht="207" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>45511</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="9">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5"/>
+    <row r="8" spans="1:13" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>45511</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="5"/>
+    <row r="9" spans="1:13" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>45511</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="9">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="5"/>
+    <row r="10" spans="1:13" ht="276" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>45511</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="9">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+    <row r="11" spans="1:13" ht="276" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>45511</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="9">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11" t="s">
+    <row r="12" spans="1:13" ht="262.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>45511</v>
+      </c>
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="234.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>45511</v>
+      </c>
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="26" t="s">
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="345" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>45512</v>
+      </c>
+      <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="27" t="s">
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>45512</v>
+      </c>
+      <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="9">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" ht="180" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>45511</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
+    <row r="16" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>45512</v>
+      </c>
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>45512</v>
+      </c>
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="234.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>45512</v>
+      </c>
+      <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="225" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>45511</v>
-      </c>
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="226" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>45511</v>
-      </c>
-      <c r="B14" s="13">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="211" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>45511</v>
-      </c>
-      <c r="B15" s="13">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="H18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="300" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>45511</v>
-      </c>
-      <c r="B16" s="13">
-        <v>5</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="300" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>45511</v>
-      </c>
-      <c r="B17" s="13">
-        <v>6</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="I18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="285" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>45511</v>
-      </c>
-      <c r="B18" s="13">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="255" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>45511</v>
-      </c>
-      <c r="B19" s="13">
-        <v>8</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="370" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>45512</v>
-      </c>
-      <c r="B20" s="13">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="270" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>45512</v>
-      </c>
-      <c r="B21" s="13">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="342" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>45512</v>
-      </c>
-      <c r="B22" s="13">
-        <v>11</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>45512</v>
-      </c>
-      <c r="B23" s="13">
-        <v>12</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="15" t="s">
+      <c r="J18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="255" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>45512</v>
-      </c>
-      <c r="B24" s="13">
-        <v>13</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="L18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="13">
+      <c r="M18" s="9">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A12:M24">
+  <conditionalFormatting sqref="A6:M18">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>OR($D12 ="Closed",$D12="Rejected",$D12="Fixed")</formula>
+      <formula>OR($D6 ="Closed",$D6="Rejected",$D6="Fixed")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
@@ -3594,29 +3482,29 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I12:I24" xr:uid="{657632E6-8D55-C441-8328-A08BEE2BEF69}">
-      <formula1>$I$102:$I$106</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I6:I18" xr:uid="{657632E6-8D55-C441-8328-A08BEE2BEF69}">
+      <formula1>$I$96:$I$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F24" xr:uid="{C5784160-B1EE-B342-99C7-9022E4778252}">
-      <formula1>$F$102:$F$103</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F18" xr:uid="{C5784160-B1EE-B342-99C7-9022E4778252}">
+      <formula1>$F$96:$F$97</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="G12:G24" xr:uid="{39F1B2F0-1EE6-8149-8A75-E2639020E2C4}">
-      <formula1>$G$101:$G$109</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="G6:G18" xr:uid="{39F1B2F0-1EE6-8149-8A75-E2639020E2C4}">
+      <formula1>$G$95:$G$103</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D12:D24" xr:uid="{6562A741-A7CD-DC4D-B659-CF6FEFF0BA16}">
-      <formula1>$D$102:$D$104</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D6:D18" xr:uid="{6562A741-A7CD-DC4D-B659-CF6FEFF0BA16}">
+      <formula1>$D$96:$D$98</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E24 C12:C24" xr:uid="{D146F5D2-A35C-4149-AEE0-24584F91CDF9}">
-      <formula1>$C$101:$C$115</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E18 C6:C18" xr:uid="{D146F5D2-A35C-4149-AEE0-24584F91CDF9}">
+      <formula1>$C$95:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="H12:H13" xr:uid="{A7D7EEF1-29E2-BA40-9E13-3B414A862541}">
-      <formula1>$H$101:$H$124</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="H6:H7" xr:uid="{A7D7EEF1-29E2-BA40-9E13-3B414A862541}">
+      <formula1>$H$95:$H$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H24" xr:uid="{91ABD2B4-3339-CB47-B06E-B4A84D07A151}">
-      <formula1>$H$101:$H$156</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H18" xr:uid="{91ABD2B4-3339-CB47-B06E-B4A84D07A151}">
+      <formula1>$H$95:$H$150</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="K12" xr:uid="{8044BA2D-7C12-6C40-BAA3-5F30B8CA7AC7}">
-      <formula1>$H$359:$H$374</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="K6" xr:uid="{8044BA2D-7C12-6C40-BAA3-5F30B8CA7AC7}">
+      <formula1>$H$353:$H$368</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/ExcelPruebaOrangeG55.xlsx
+++ b/uploads/ExcelPruebaOrangeG55.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arodriguez62\ProgramasTFG\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED0544-CD5F-40EA-B105-C59F20A329E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF15AE4E-34ED-427C-B474-FEB6B9843E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27516" yWindow="2988" windowWidth="23040" windowHeight="12120" xr2:uid="{D6015473-BA1F-4047-BAD7-7918617657AA}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{D6015473-BA1F-4047-BAD7-7918617657AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2023,18 +2023,18 @@
     <t>bug number</t>
   </si>
   <si>
-    <t xml:space="preserve">Raised in
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed in
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed by </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tested by  </t>
+    <t>Raised in
+(Soft. Vers.)</t>
+  </si>
+  <si>
+    <t>Fixed in
+(Soft. Vers.)</t>
+  </si>
+  <si>
+    <t>Fixed by QA or on prototype (prototype by default)</t>
+  </si>
+  <si>
+    <t>Tested by  MCO</t>
   </si>
 </sst>
 </file>
@@ -2804,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDAB574-9F8C-7E41-9BC7-62B769BED3D6}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2877,7 +2877,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="27"/>
     </row>
-    <row r="5" spans="1:13" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
